--- a/biology/Botanique/Érable_à_feuilles_d'obier/Érable_à_feuilles_d'obier.xlsx
+++ b/biology/Botanique/Érable_à_feuilles_d'obier/Érable_à_feuilles_d'obier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rable_%C3%A0_feuilles_d%27obier</t>
+          <t>Érable_à_feuilles_d'obier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer opalus
 L'érable à feuilles d'obier, Acer opalus Mill. est un arbre généralement de taille moyenne, mais pouvant approcher 30 m de hauteur en futaie, comme dans la forêt de la Sainte-Baume (département du Var, sud-est de la France). Il appartient à la famille des Acéracées selon la classification classique, ou de la famille des Sapindacées selon la classification phylogénétique).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rable_%C3%A0_feuilles_d%27obier</t>
+          <t>Érable_à_feuilles_d'obier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Habitat et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse, en France, principalement dans le bassin méditerranéen, le plus souvent en basse et moyenne montagne (jusqu'à 1900 mètres d'altitude) dans l'étage du hêtre ou du chêne pubescent. Il est également présent (bien que rare) en Corse.
 Cet érable n'est pas exclusivement méditerranéen, on le trouve aussi dans le Jura, le Massif central, les Alpes et les Pyrénées. Plus globalement, il se rencontre essentiellement sur le pourtour méditerranéen occidental (de l'Espagne à l'ex-Yougoslavie). Son aire de répartition remonte jusque dans l'ouest de la Suisse (Jura, Bas-Valais).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rable_%C3%A0_feuilles_d%27obier</t>
+          <t>Érable_à_feuilles_d'obier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">France: érable d'Italie, érable Duret, ayard.
 En Espagne, il possède plusieurs noms communs, en castillan : acebo, acere, acirón, aciron, aillon, arce, arce morisco, asa, asar, ácer, ácere, endrino negro, oró, orón, oron, ásar, yarra.
